--- a/src/assets/documents/preguntaObjetivasConservador.xlsx
+++ b/src/assets/documents/preguntaObjetivasConservador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9578752-FB73-4770-B604-1CA4E29DDF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C97CC-D33F-4C3F-A74E-87D69A922767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="2" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F1D32-4EEB-430C-A9B4-3504E8B95258}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2212,23 +2212,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -2417,32 +2400,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2459,4 +2434,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/documents/preguntaObjetivasConservador.xlsx
+++ b/src/assets/documents/preguntaObjetivasConservador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C97CC-D33F-4C3F-A74E-87D69A922767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842265A7-40D1-43AE-8EAD-7A1E9BBF8666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>nombre</t>
   </si>
@@ -186,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,12 +234,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -265,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,9 +271,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F1D32-4EEB-430C-A9B4-3504E8B95258}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B5289D-8738-4DA2-AC29-B8179EB99313}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +644,7 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -662,19 +655,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -685,10 +672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A8" sqref="A8:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +686,7 @@
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -719,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -739,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -759,7 +746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -779,7 +766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -799,7 +786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -819,11 +806,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="s">
@@ -839,191 +826,6 @@
         <v>19</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,10 +835,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
-  <dimension ref="A1:L244"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1227,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D18">
@@ -1463,206 +1265,141 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
-      <c r="L20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
       <c r="I22" s="2"/>
-      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I23" s="2"/>
-      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I24" s="2"/>
-      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I25" s="2"/>
-      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I26" s="2"/>
-      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="F27" s="3"/>
       <c r="I27" s="2"/>
-      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="F28" s="3"/>
       <c r="I28" s="2"/>
-      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="L29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="L30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="L31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C53" s="2"/>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.25">
@@ -2078,132 +1815,6 @@
     </row>
     <row r="202" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I202" s="2"/>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I203" s="2"/>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I204" s="2"/>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I205" s="2"/>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I206" s="2"/>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I207" s="2"/>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I208" s="2"/>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I209" s="2"/>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I210" s="2"/>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I211" s="2"/>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I212" s="2"/>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I213" s="2"/>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I214" s="2"/>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I215" s="2"/>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I216" s="2"/>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I217" s="2"/>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I218" s="2"/>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I219" s="2"/>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I220" s="2"/>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I221" s="2"/>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I222" s="2"/>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I223" s="2"/>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I224" s="2"/>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I225" s="2"/>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I226" s="2"/>
-    </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I227" s="2"/>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I228" s="2"/>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I229" s="2"/>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I230" s="2"/>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I231" s="2"/>
-    </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I232" s="2"/>
-    </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I233" s="2"/>
-    </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I234" s="2"/>
-    </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I235" s="2"/>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I236" s="2"/>
-    </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I237" s="2"/>
-    </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I238" s="2"/>
-    </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I239" s="2"/>
-    </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I240" s="2"/>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I241" s="2"/>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I242" s="2"/>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I243" s="2"/>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I244" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2212,6 +1823,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -2400,24 +2028,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2434,29 +2070,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/documents/preguntaObjetivasConservador.xlsx
+++ b/src/assets/documents/preguntaObjetivasConservador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842265A7-40D1-43AE-8EAD-7A1E9BBF8666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F2553C-DB20-4025-92DE-0F92CD099391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -674,13 +674,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
@@ -830,6 +830,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -837,13 +838,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="94.5703125" customWidth="1"/>
+    <col min="3" max="3" width="142.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="12" max="12" width="49.5703125" customWidth="1"/>
@@ -1823,23 +1824,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -2028,32 +2012,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2070,4 +2046,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>